--- a/src/test/java/ApachePOI/Resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/Resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="6">
   <si>
     <t>Login with valid username and password</t>
   </si>
@@ -21,6 +21,15 @@
   </si>
   <si>
     <t>chrome</t>
+  </si>
+  <si>
+    <t>Verify that all the required elements are displayed</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>Notification message when pressing save button without entering mandatory fields.</t>
   </si>
 </sst>
 </file>
@@ -65,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -93,6 +102,204 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/Resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/Resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="8">
   <si>
     <t>Login with valid username and password</t>
   </si>
@@ -30,6 +30,12 @@
   </si>
   <si>
     <t>Notification message when pressing save button without entering mandatory fields.</t>
+  </si>
+  <si>
+    <t>Entering the password less than 8 characters</t>
+  </si>
+  <si>
+    <t>See notification messages displayed</t>
   </si>
 </sst>
 </file>
@@ -74,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -300,6 +306,72 @@
         <v>2</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/Resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/Resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="11">
   <si>
     <t>Login with valid username and password</t>
   </si>
@@ -36,6 +36,15 @@
   </si>
   <si>
     <t>See notification messages displayed</t>
+  </si>
+  <si>
+    <t>Not get the same username</t>
+  </si>
+  <si>
+    <t>Saving before entering mandatory field.</t>
+  </si>
+  <si>
+    <t>User will create a new user and check the username and password is valid</t>
   </si>
 </sst>
 </file>
@@ -80,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -372,6 +381,193 @@
         <v>2</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/Resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/Resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="12">
   <si>
     <t>Login with valid username and password</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>User will create a new user and check the username and password is valid</t>
+  </si>
+  <si>
+    <t>Verify that "Already exists" notification messages are displayed in red.</t>
   </si>
 </sst>
 </file>
@@ -89,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -568,6 +571,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
